--- a/Week 9.xlsx
+++ b/Week 9.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="240" windowWidth="21160" windowHeight="13980" tabRatio="500"/>
+    <workbookView xWindow="1220" yWindow="240" windowWidth="21160" windowHeight="13980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Line-ups" sheetId="2" r:id="rId1"/>
     <sheet name="aggregate-week9.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="532">
   <si>
     <t>Name</t>
   </si>
@@ -1610,6 +1614,12 @@
   </si>
   <si>
     <t>tourney</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -1652,7 +1662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1671,6 +1681,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1681,7 +1697,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1706,15 +1722,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="28">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1727,6 +1752,8 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1738,6 +1765,8 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
@@ -1844,6 +1873,1994 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Zachariah" refreshedDate="42317.968250231483" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="450">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B451" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="teamAbbrev" numFmtId="0">
+      <sharedItems count="26">
+        <s v="Atl"/>
+        <s v="NYG"/>
+        <s v="NE"/>
+        <s v="Pit"/>
+        <s v="Dal"/>
+        <s v="SD"/>
+        <s v="NYJ"/>
+        <s v="Cin"/>
+        <s v="Den"/>
+        <s v="GB"/>
+        <s v="Min"/>
+        <s v="NO"/>
+        <s v="Ind"/>
+        <s v="Car"/>
+        <s v="StL"/>
+        <s v="Chi"/>
+        <s v="TB"/>
+        <s v="Oak"/>
+        <s v="Phi"/>
+        <s v="Jax"/>
+        <s v="Mia"/>
+        <s v="Was"/>
+        <s v="Buf"/>
+        <s v="Ten"/>
+        <s v="Cle"/>
+        <s v="SF"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="AvgPointsPerGame" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-0.4" maxValue="29.056999999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="450">
+  <r>
+    <x v="0"/>
+    <n v="26.524999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="20.838000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="29.056999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="21.670999999999999"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="19.55"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="22.657"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="27.274999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6.5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="20.033000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="21.437999999999999"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="22.228999999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="20.129000000000001"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="19.928999999999998"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="20.545999999999999"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="16.428999999999998"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="16.986000000000001"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="23.149000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="17.882999999999999"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="21.393000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="19.855"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="24.414999999999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="21.503"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="15.138"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="20.86"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="17.670999999999999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="14.7"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="12.433"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="25.033000000000001"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="17.271000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="17.57"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="18.465"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="16.399999999999999"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="18.175000000000001"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="15.65"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="18.649999999999999"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="12.4"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="18.8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="13.88"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="17.899999999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="23.053999999999998"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8.7140000000000004"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="15.271000000000001"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="14.977"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="18.100000000000001"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="14.363"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="18.774000000000001"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="17.399999999999999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="14.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8.5879999999999992"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="13.34"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="19.817"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="19.733000000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="15.586"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="20.725999999999999"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="13.613"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="16.382999999999999"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="21.596"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="16.757000000000001"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="17.352"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="21.45"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="17.497"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="16.446000000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12.143000000000001"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="16.513000000000002"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="10.385999999999999"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="17.289000000000001"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="11.885999999999999"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="16.882999999999999"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="12.2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="10.56"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4.1849999999999996"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="13.52"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="15.8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6.3479999999999999"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="19.64"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6.22"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6.52"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0.36"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1.925"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="15.275"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3.58"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9.6300000000000008"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="12.856999999999999"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="11.89"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="-0.4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="11.68"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="15.8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="-0.13300000000000001"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="1.3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="7.23"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="9.4250000000000007"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="11.629"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="16.042999999999999"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="12.275"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="17.713000000000001"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="15.875"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="11.25"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="15.371"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="13.286"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="13.513"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="13.8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="11.65"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="19.433"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="10.929"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="17.399999999999999"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="16.143000000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10.75"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12.228999999999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="11.513999999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="11.2"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="12.314"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="12.85"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9.2710000000000008"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="12.042999999999999"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="8.7330000000000005"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8.7430000000000003"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="9.0429999999999993"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="10.55"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="8.8000000000000007"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="8.85"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="13.525"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="10.186"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="12.35"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3.5859999999999999"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="7.7430000000000003"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="14.8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="7.8129999999999997"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="11.25"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1.94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="5.375"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="9.9879999999999995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9.3629999999999995"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="8.4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="8.8859999999999992"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8.15"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="9.98"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="11.557"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="9.0570000000000004"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="6.2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="9.4429999999999996"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="10.571"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="9.58"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4.1669999999999998"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="12.143000000000001"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="8.1669999999999998"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="10.943"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="9.5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="9.9139999999999997"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="8.4290000000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1.6379999999999999"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="7.9509999999999996"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="8.1129999999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8.7140000000000004"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2.133"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="6.0140000000000002"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="7.2430000000000003"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="12.343"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="9.3330000000000002"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="3.2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.4139999999999999"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="7.8570000000000002"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="9.2859999999999996"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="6.6"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1.94"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="10.717000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="5.5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="6.6289999999999996"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="7.2859999999999996"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="5.5170000000000003"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="6.0289999999999999"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="9.5169999999999995"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="8.4290000000000003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="8.9139999999999997"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4.2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="2.9140000000000001"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1.74"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="5.0709999999999997"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="1.5860000000000001"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="11.129"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.26300000000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="5.36"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2.9000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2.6669999999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="6.4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="5.3140000000000001"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="6.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="6.2380000000000004"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="1.7430000000000001"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0.35699999999999998"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.786"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0.443"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="5.7750000000000004"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3.1669999999999998"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="8.4290000000000003"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="2.238"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.41399999999999998"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="6.9669999999999996"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="3.3170000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="6.2140000000000004"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2.4140000000000001"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="1.6859999999999999"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2.9860000000000002"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="3.64"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.875"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="2.9"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="-0.33300000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4.1710000000000003"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5.3289999999999997"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="2.9329999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="7.9130000000000003"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="7.36"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.83799999999999997"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="3.133"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.238"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="1.5669999999999999"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="3.45"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5.9139999999999997"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2.8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2.34"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7.1669999999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.45"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.13800000000000001"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="4.5570000000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.6"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="5.08"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0.18"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="0.82899999999999996"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="6.0570000000000004"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="5.8380000000000001"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="1.1000000000000001"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="5.6429999999999998"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="4.3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="4.5830000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="4.375"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.375"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="3.55"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3.1139999999999999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2.6859999999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2.0859999999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.58"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4.7"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="5.6429999999999998"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1.4430000000000001"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="10.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1.8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2.8380000000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2.9860000000000002"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0.55000000000000004"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0.6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2.2829999999999999"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="4.0129999999999999"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1.2669999999999999"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="4.0999999999999996"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="4.9569999999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0.51300000000000001"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1.42"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2.0710000000000002"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="6.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2.8879999999999999"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="4.55"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.42"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1.55"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="4.7290000000000001"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="3.1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="4.0999999999999996"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1.95"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1.2709999999999999"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0.47499999999999998"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="2.2400000000000002"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.214"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="2.44"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="8.3710000000000004"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.55700000000000005"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2.286"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="4.5289999999999999"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0.77500000000000002"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.73299999999999998"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2.9430000000000001"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="8.8130000000000006"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="5.4249999999999998"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="3.0329999999999999"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="6.5709999999999997"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="7.1429999999999998"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="7.5"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="6.2329999999999997"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="8.6"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="17.95"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="9.25"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="10.286"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8.1630000000000003"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="4.5999999999999996"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="6.5709999999999997"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8.125"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="3.125"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="5.9859999999999998"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="6.3570000000000002"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="3.1859999999999999"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="7.4290000000000003"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1.4570000000000001"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="2.0139999999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="4.3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0.2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="4.9859999999999998"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="3.7290000000000001"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0.92900000000000005"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.014"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="0.52500000000000002"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2.5000000000000001E-2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="3.4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2.7570000000000001"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0.875"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="3.129"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2.4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0.26700000000000002"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="0.17100000000000001"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="4.0330000000000004"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.2170000000000001"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2.5830000000000002"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="1.5"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="1.04"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.56699999999999995"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="4.3630000000000004"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.86"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="5.4249999999999998"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="2.6429999999999998"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="3.75"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0.55700000000000005"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2.5750000000000002"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1.238"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="1.643"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2.35"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0.82899999999999996"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="1.3129999999999999"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1.629"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="3.9"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="0.78300000000000003"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0.82899999999999996"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="3.22"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2.94"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="4.0999999999999996"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="3.714"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="7.5709999999999997"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="6.4290000000000003"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="6.25"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="6.125"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="5.875"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="4.5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="D5:I33" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="0"/>
+        <item x="22"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="24"/>
+        <item x="4"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="25"/>
+        <item x="14"/>
+        <item x="16"/>
+        <item x="23"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2173,8 +4190,8 @@
   </sheetPr>
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4183,12 +6200,12 @@
         <f t="shared" si="6"/>
         <v>244.86654773191461</v>
       </c>
-      <c r="P34">
-        <v>7.4</v>
+      <c r="P34" s="5">
+        <v>25.2</v>
       </c>
       <c r="Q34" s="3">
         <f t="shared" si="7"/>
-        <v>540.54054054054052</v>
+        <v>158.73015873015873</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4309,11 +6326,11 @@
       </c>
       <c r="P36">
         <f t="shared" ref="P36" si="9">SUM(P27:P35)</f>
-        <v>186.83999999999997</v>
+        <v>204.63999999999996</v>
       </c>
       <c r="Q36" s="3">
         <f>50000/P36</f>
-        <v>267.60864911153931</v>
+        <v>244.33150899139957</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5251,13 +7268,13 @@
         <f t="shared" si="13"/>
         <v>244.86654773191461</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="5">
         <f>P34</f>
-        <v>7.4</v>
+        <v>25.2</v>
       </c>
       <c r="Q56" s="3">
         <f t="shared" si="14"/>
-        <v>540.54054054054052</v>
+        <v>158.73015873015873</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5386,12 +7403,12 @@
         <f t="shared" si="13"/>
         <v>236.59639190577315</v>
       </c>
-      <c r="P58">
-        <v>4.0999999999999996</v>
+      <c r="P58" s="5">
+        <v>13.8</v>
       </c>
       <c r="Q58" s="3">
         <f t="shared" si="14"/>
-        <v>780.48780487804879</v>
+        <v>231.88405797101447</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -5713,61 +7730,61 @@
       </c>
       <c r="P63">
         <f t="shared" si="15"/>
-        <v>185.66</v>
+        <v>213.16</v>
       </c>
       <c r="Q63" s="3">
         <f>50000/P63</f>
-        <v>269.30949046644406</v>
+        <v>234.56558453743668</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="P64" s="1">
         <f>P36-P63</f>
-        <v>1.1799999999999784</v>
+        <v>-8.5200000000000387</v>
       </c>
       <c r="Q64" s="3">
         <f>50000/P64</f>
-        <v>42372.881355932979</v>
+        <v>-5868.5446009389407</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q13 Q25 Q37 Q64:Q1048576 Q50:Q52">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q12">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q24">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26:Q36">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:Q48">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53:Q62">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q63">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5785,9 +7802,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R451"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
@@ -25842,6 +27864,3723 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D451"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>26.524999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>20.838000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>29.056999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>21.670999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>19.55</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>22.657</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>27.274999999999999</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>6.5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>20.033000000000001</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11">
+        <v>21.437999999999999</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12">
+        <v>22.228999999999999</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13">
+        <v>20.129000000000001</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>19.928999999999998</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15">
+        <v>20.545999999999999</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>16.428999999999998</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>16.986000000000001</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18">
+        <v>23.149000000000001</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>17.882999999999999</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20">
+        <v>21.393000000000001</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>19.855</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>24.414999999999999</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>21.503</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>15.138</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>20.86</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26">
+        <v>17.670999999999999</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>14.7</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>12.433</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>25.033000000000001</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>17.271000000000001</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>17.57</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>18.465</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>18.175000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36">
+        <v>18.649999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>23.053999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>8.7140000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>15.271000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>14.977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>14.363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48">
+        <v>18.774000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51">
+        <v>8.5879999999999992</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53">
+        <v>19.817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>19.733000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55">
+        <v>15.586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56">
+        <v>20.725999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>13.613</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>16.382999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59">
+        <v>21.596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60">
+        <v>16.757000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61">
+        <v>17.352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63">
+        <v>17.497</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64">
+        <v>16.446000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>12.143000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66">
+        <v>16.513000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67">
+        <v>10.385999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <v>17.289000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>11.885999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70">
+        <v>16.882999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73">
+        <v>4.1849999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75">
+        <v>13.52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77">
+        <v>6.3479999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82">
+        <v>6.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91">
+        <v>15.275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>72</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>74</v>
+      </c>
+      <c r="B95">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98">
+        <v>12.856999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>124</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>32</v>
+      </c>
+      <c r="B100">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>150</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B103">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>80</v>
+      </c>
+      <c r="B107">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>52</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>52</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114">
+        <v>-0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>55</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>58</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>108</v>
+      </c>
+      <c r="B120">
+        <v>9.4250000000000007</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>74</v>
+      </c>
+      <c r="B121">
+        <v>11.629</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>80</v>
+      </c>
+      <c r="B122">
+        <v>16.042999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123">
+        <v>12.275</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>17.713000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125">
+        <v>15.875</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127">
+        <v>15.371</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128">
+        <v>13.286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>62</v>
+      </c>
+      <c r="B129">
+        <v>13.513</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132">
+        <v>19.433</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>52</v>
+      </c>
+      <c r="B133">
+        <v>10.929</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135">
+        <v>16.143000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137">
+        <v>12.228999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>69</v>
+      </c>
+      <c r="B138">
+        <v>11.513999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140">
+        <v>12.314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>118</v>
+      </c>
+      <c r="B141">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>55</v>
+      </c>
+      <c r="B142">
+        <v>9.2710000000000008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>108</v>
+      </c>
+      <c r="B143">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>12.042999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>90</v>
+      </c>
+      <c r="B145">
+        <v>8.7330000000000005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146">
+        <v>8.7430000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147">
+        <v>9.0429999999999993</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>52</v>
+      </c>
+      <c r="B149">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150">
+        <v>8.85</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>62</v>
+      </c>
+      <c r="B151">
+        <v>13.525</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153">
+        <v>10.186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>74</v>
+      </c>
+      <c r="B155">
+        <v>3.5859999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>74</v>
+      </c>
+      <c r="B156">
+        <v>7.7430000000000003</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>108</v>
+      </c>
+      <c r="B157">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158">
+        <v>7.8129999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>124</v>
+      </c>
+      <c r="B159">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>21</v>
+      </c>
+      <c r="B161">
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>43</v>
+      </c>
+      <c r="B162">
+        <v>9.9879999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163">
+        <v>9.3629999999999995</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>55</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166">
+        <v>8.8859999999999992</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>108</v>
+      </c>
+      <c r="B168">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169">
+        <v>11.557</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>102</v>
+      </c>
+      <c r="B170">
+        <v>9.0570000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>72</v>
+      </c>
+      <c r="B171">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172">
+        <v>9.4429999999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>77</v>
+      </c>
+      <c r="B173">
+        <v>10.571</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>118</v>
+      </c>
+      <c r="B174">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175">
+        <v>4.1669999999999998</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>72</v>
+      </c>
+      <c r="B176">
+        <v>12.143000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>74</v>
+      </c>
+      <c r="B177">
+        <v>8.1669999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>69</v>
+      </c>
+      <c r="B178">
+        <v>10.943</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>108</v>
+      </c>
+      <c r="B179">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>86</v>
+      </c>
+      <c r="B180">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>62</v>
+      </c>
+      <c r="B182">
+        <v>9.9139999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>118</v>
+      </c>
+      <c r="B183">
+        <v>8.4290000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184">
+        <v>1.6379999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>108</v>
+      </c>
+      <c r="B185">
+        <v>7.9509999999999996</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>124</v>
+      </c>
+      <c r="B186">
+        <v>8.1129999999999995</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187">
+        <v>8.7140000000000004</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>108</v>
+      </c>
+      <c r="B188">
+        <v>2.133</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>102</v>
+      </c>
+      <c r="B189">
+        <v>6.0140000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>94</v>
+      </c>
+      <c r="B190">
+        <v>7.2430000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191">
+        <v>12.343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>102</v>
+      </c>
+      <c r="B192">
+        <v>9.3330000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>72</v>
+      </c>
+      <c r="B193">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>55</v>
+      </c>
+      <c r="B194">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195">
+        <v>1.4139999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196">
+        <v>7.8570000000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>55</v>
+      </c>
+      <c r="B197">
+        <v>9.2859999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>69</v>
+      </c>
+      <c r="B198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>90</v>
+      </c>
+      <c r="B200">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>43</v>
+      </c>
+      <c r="B201">
+        <v>10.717000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>46</v>
+      </c>
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>80</v>
+      </c>
+      <c r="B203">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204">
+        <v>6.6289999999999996</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>86</v>
+      </c>
+      <c r="B205">
+        <v>7.2859999999999996</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>86</v>
+      </c>
+      <c r="B206">
+        <v>5.5170000000000003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>118</v>
+      </c>
+      <c r="B207">
+        <v>6.0289999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208">
+        <v>9.5169999999999995</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>58</v>
+      </c>
+      <c r="B209">
+        <v>8.4290000000000003</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>46</v>
+      </c>
+      <c r="B210">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>62</v>
+      </c>
+      <c r="B211">
+        <v>8.9139999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>118</v>
+      </c>
+      <c r="B212">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>52</v>
+      </c>
+      <c r="B213">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>94</v>
+      </c>
+      <c r="B214">
+        <v>2.9140000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>150</v>
+      </c>
+      <c r="B215">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>86</v>
+      </c>
+      <c r="B216">
+        <v>5.0709999999999997</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217">
+        <v>1.5860000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218">
+        <v>11.129</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>124</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>118</v>
+      </c>
+      <c r="B221">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>28</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>69</v>
+      </c>
+      <c r="B224">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>108</v>
+      </c>
+      <c r="B225">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>65</v>
+      </c>
+      <c r="B226">
+        <v>2.6669999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>150</v>
+      </c>
+      <c r="B228">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>69</v>
+      </c>
+      <c r="B229">
+        <v>5.3140000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>124</v>
+      </c>
+      <c r="B230">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>32</v>
+      </c>
+      <c r="B231">
+        <v>6.2380000000000004</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>55</v>
+      </c>
+      <c r="B232">
+        <v>1.7430000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>86</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>124</v>
+      </c>
+      <c r="B234">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>49</v>
+      </c>
+      <c r="B235">
+        <v>1.786</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>102</v>
+      </c>
+      <c r="B236">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>74</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>124</v>
+      </c>
+      <c r="B238">
+        <v>5.7750000000000004</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>43</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>77</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>52</v>
+      </c>
+      <c r="B241">
+        <v>3.1669999999999998</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>80</v>
+      </c>
+      <c r="B242">
+        <v>8.4290000000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>150</v>
+      </c>
+      <c r="B243">
+        <v>2.238</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>74</v>
+      </c>
+      <c r="B244">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>90</v>
+      </c>
+      <c r="B245">
+        <v>6.9669999999999996</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>102</v>
+      </c>
+      <c r="B246">
+        <v>3.3170000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>43</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>86</v>
+      </c>
+      <c r="B248">
+        <v>6.2140000000000004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>108</v>
+      </c>
+      <c r="B249">
+        <v>2.4140000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>72</v>
+      </c>
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>69</v>
+      </c>
+      <c r="B251">
+        <v>1.6859999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252">
+        <v>2.9860000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>58</v>
+      </c>
+      <c r="B253">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>72</v>
+      </c>
+      <c r="B254">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>108</v>
+      </c>
+      <c r="B255">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>108</v>
+      </c>
+      <c r="B256">
+        <v>-0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>43</v>
+      </c>
+      <c r="B257">
+        <v>4.1710000000000003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>49</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>90</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>46</v>
+      </c>
+      <c r="B260">
+        <v>5.3289999999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>124</v>
+      </c>
+      <c r="B261">
+        <v>2.9329999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262">
+        <v>7.9130000000000003</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>46</v>
+      </c>
+      <c r="B263">
+        <v>7.36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>32</v>
+      </c>
+      <c r="B264">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>77</v>
+      </c>
+      <c r="B265">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>80</v>
+      </c>
+      <c r="B266">
+        <v>3.133</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267">
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>62</v>
+      </c>
+      <c r="B268">
+        <v>1.5669999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>86</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>39</v>
+      </c>
+      <c r="B271">
+        <v>5.9139999999999997</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
+        <v>58</v>
+      </c>
+      <c r="B272">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>65</v>
+      </c>
+      <c r="B273">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>69</v>
+      </c>
+      <c r="B274">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>28</v>
+      </c>
+      <c r="B275">
+        <v>7.1669999999999998</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>32</v>
+      </c>
+      <c r="B277">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>58</v>
+      </c>
+      <c r="B278">
+        <v>4.5570000000000004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>28</v>
+      </c>
+      <c r="B279">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>94</v>
+      </c>
+      <c r="B280">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>77</v>
+      </c>
+      <c r="B281">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" t="s">
+        <v>65</v>
+      </c>
+      <c r="B282">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>46</v>
+      </c>
+      <c r="B283">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" t="s">
+        <v>102</v>
+      </c>
+      <c r="B284">
+        <v>6.0570000000000004</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>32</v>
+      </c>
+      <c r="B285">
+        <v>5.8380000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>49</v>
+      </c>
+      <c r="B286">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" t="s">
+        <v>72</v>
+      </c>
+      <c r="B287">
+        <v>5.6429999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>150</v>
+      </c>
+      <c r="B288">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>46</v>
+      </c>
+      <c r="B290">
+        <v>4.5830000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>43</v>
+      </c>
+      <c r="B291">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" t="s">
+        <v>32</v>
+      </c>
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" t="s">
+        <v>118</v>
+      </c>
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" t="s">
+        <v>69</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" t="s">
+        <v>69</v>
+      </c>
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" t="s">
+        <v>72</v>
+      </c>
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" t="s">
+        <v>39</v>
+      </c>
+      <c r="B297">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>90</v>
+      </c>
+      <c r="B298">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" t="s">
+        <v>52</v>
+      </c>
+      <c r="B299">
+        <v>3.1139999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" t="s">
+        <v>55</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" t="s">
+        <v>21</v>
+      </c>
+      <c r="B301">
+        <v>2.6859999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" t="s">
+        <v>39</v>
+      </c>
+      <c r="B302">
+        <v>2.0859999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" t="s">
+        <v>28</v>
+      </c>
+      <c r="B303">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" t="s">
+        <v>90</v>
+      </c>
+      <c r="B304">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" t="s">
+        <v>72</v>
+      </c>
+      <c r="B305">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" t="s">
+        <v>118</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" t="s">
+        <v>94</v>
+      </c>
+      <c r="B307">
+        <v>5.6429999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>118</v>
+      </c>
+      <c r="B308">
+        <v>1.4430000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>46</v>
+      </c>
+      <c r="B309">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>80</v>
+      </c>
+      <c r="B311">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>62</v>
+      </c>
+      <c r="B312">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313">
+        <v>2.8380000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>74</v>
+      </c>
+      <c r="B315">
+        <v>2.9860000000000002</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>90</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>80</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>124</v>
+      </c>
+      <c r="B318">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>52</v>
+      </c>
+      <c r="B319">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>28</v>
+      </c>
+      <c r="B320">
+        <v>2.2829999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>62</v>
+      </c>
+      <c r="B321">
+        <v>4.0129999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>150</v>
+      </c>
+      <c r="B322">
+        <v>1.2669999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>94</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>21</v>
+      </c>
+      <c r="B324">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>80</v>
+      </c>
+      <c r="B325">
+        <v>4.9569999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326">
+        <v>0.51300000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>80</v>
+      </c>
+      <c r="B327">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>74</v>
+      </c>
+      <c r="B328">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>58</v>
+      </c>
+      <c r="B329">
+        <v>2.0710000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>69</v>
+      </c>
+      <c r="B330">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>21</v>
+      </c>
+      <c r="B331">
+        <v>2.8879999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>150</v>
+      </c>
+      <c r="B332">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>65</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>74</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>118</v>
+      </c>
+      <c r="B336">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337">
+        <v>4.7290000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>102</v>
+      </c>
+      <c r="B338">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>90</v>
+      </c>
+      <c r="B339">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>77</v>
+      </c>
+      <c r="B340">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>94</v>
+      </c>
+      <c r="B341">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>55</v>
+      </c>
+      <c r="B342">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>150</v>
+      </c>
+      <c r="B343">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>55</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>72</v>
+      </c>
+      <c r="B345">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>46</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>65</v>
+      </c>
+      <c r="B347">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>55</v>
+      </c>
+      <c r="B348">
+        <v>8.3710000000000004</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>52</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>58</v>
+      </c>
+      <c r="B350">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>94</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>69</v>
+      </c>
+      <c r="B352">
+        <v>2.286</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>80</v>
+      </c>
+      <c r="B353">
+        <v>4.5289999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>69</v>
+      </c>
+      <c r="B354">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>39</v>
+      </c>
+      <c r="B355">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>58</v>
+      </c>
+      <c r="B356">
+        <v>2.9430000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>62</v>
+      </c>
+      <c r="B357">
+        <v>8.8130000000000006</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>49</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>124</v>
+      </c>
+      <c r="B359">
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>77</v>
+      </c>
+      <c r="B360">
+        <v>3.0329999999999999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>108</v>
+      </c>
+      <c r="B361">
+        <v>6.5709999999999997</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>94</v>
+      </c>
+      <c r="B362">
+        <v>7.1429999999999998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>58</v>
+      </c>
+      <c r="B363">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>90</v>
+      </c>
+      <c r="B364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>150</v>
+      </c>
+      <c r="B365">
+        <v>6.2329999999999997</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>65</v>
+      </c>
+      <c r="B366">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>77</v>
+      </c>
+      <c r="B367">
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>39</v>
+      </c>
+      <c r="B368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>24</v>
+      </c>
+      <c r="B369">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>86</v>
+      </c>
+      <c r="B370">
+        <v>10.286</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>32</v>
+      </c>
+      <c r="B371">
+        <v>8.1630000000000003</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>108</v>
+      </c>
+      <c r="B372">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>118</v>
+      </c>
+      <c r="B373">
+        <v>6.5709999999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" t="s">
+        <v>32</v>
+      </c>
+      <c r="B374">
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" t="s">
+        <v>43</v>
+      </c>
+      <c r="B375">
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" t="s">
+        <v>52</v>
+      </c>
+      <c r="B376">
+        <v>5.9859999999999998</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" t="s">
+        <v>72</v>
+      </c>
+      <c r="B377">
+        <v>6.3570000000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" t="s">
+        <v>80</v>
+      </c>
+      <c r="B378">
+        <v>3.1859999999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" t="s">
+        <v>102</v>
+      </c>
+      <c r="B379">
+        <v>7.4290000000000003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" t="s">
+        <v>118</v>
+      </c>
+      <c r="B380">
+        <v>1.4570000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" t="s">
+        <v>90</v>
+      </c>
+      <c r="B381">
+        <v>2.0139999999999998</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" t="s">
+        <v>28</v>
+      </c>
+      <c r="B382">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" t="s">
+        <v>32</v>
+      </c>
+      <c r="B383">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" t="s">
+        <v>49</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" t="s">
+        <v>118</v>
+      </c>
+      <c r="B385">
+        <v>4.9859999999999998</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" t="s">
+        <v>86</v>
+      </c>
+      <c r="B386">
+        <v>3.7290000000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" t="s">
+        <v>74</v>
+      </c>
+      <c r="B387">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" t="s">
+        <v>46</v>
+      </c>
+      <c r="B388">
+        <v>1.014</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" t="s">
+        <v>77</v>
+      </c>
+      <c r="B389">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" t="s">
+        <v>21</v>
+      </c>
+      <c r="B390">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>43</v>
+      </c>
+      <c r="B391">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" t="s">
+        <v>90</v>
+      </c>
+      <c r="B392">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" t="s">
+        <v>69</v>
+      </c>
+      <c r="B393">
+        <v>2.7570000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" t="s">
+        <v>77</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" t="s">
+        <v>102</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>124</v>
+      </c>
+      <c r="B396">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" t="s">
+        <v>52</v>
+      </c>
+      <c r="B397">
+        <v>3.129</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" t="s">
+        <v>43</v>
+      </c>
+      <c r="B398">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" t="s">
+        <v>52</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" t="s">
+        <v>124</v>
+      </c>
+      <c r="B400">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" t="s">
+        <v>150</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" t="s">
+        <v>108</v>
+      </c>
+      <c r="B402">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" t="s">
+        <v>72</v>
+      </c>
+      <c r="B403">
+        <v>4.0330000000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" t="s">
+        <v>46</v>
+      </c>
+      <c r="B404">
+        <v>1.2170000000000001</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" t="s">
+        <v>62</v>
+      </c>
+      <c r="B405">
+        <v>2.5830000000000002</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" t="s">
+        <v>80</v>
+      </c>
+      <c r="B406">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" t="s">
+        <v>77</v>
+      </c>
+      <c r="B407">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" t="s">
+        <v>58</v>
+      </c>
+      <c r="B408">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" t="s">
+        <v>150</v>
+      </c>
+      <c r="B409">
+        <v>4.3630000000000004</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" t="s">
+        <v>39</v>
+      </c>
+      <c r="B410">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" t="s">
+        <v>94</v>
+      </c>
+      <c r="B411">
+        <v>5.4249999999999998</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" t="s">
+        <v>80</v>
+      </c>
+      <c r="B412">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" t="s">
+        <v>72</v>
+      </c>
+      <c r="B413">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" t="s">
+        <v>118</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" t="s">
+        <v>65</v>
+      </c>
+      <c r="B415">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" t="s">
+        <v>58</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" t="s">
+        <v>28</v>
+      </c>
+      <c r="B417">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" t="s">
+        <v>62</v>
+      </c>
+      <c r="B418">
+        <v>2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" t="s">
+        <v>65</v>
+      </c>
+      <c r="B419">
+        <v>1.238</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" t="s">
+        <v>150</v>
+      </c>
+      <c r="B420">
+        <v>1.643</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" t="s">
+        <v>55</v>
+      </c>
+      <c r="B421">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" t="s">
+        <v>49</v>
+      </c>
+      <c r="B422">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" t="s">
+        <v>21</v>
+      </c>
+      <c r="B423">
+        <v>1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" t="s">
+        <v>72</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" t="s">
+        <v>39</v>
+      </c>
+      <c r="B425">
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" t="s">
+        <v>94</v>
+      </c>
+      <c r="B426">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" t="s">
+        <v>90</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" t="s">
+        <v>94</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" t="s">
+        <v>86</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" t="s">
+        <v>150</v>
+      </c>
+      <c r="B430">
+        <v>0.78300000000000003</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" t="s">
+        <v>58</v>
+      </c>
+      <c r="B431">
+        <v>0.82899999999999996</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" t="s">
+        <v>77</v>
+      </c>
+      <c r="B432">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" t="s">
+        <v>24</v>
+      </c>
+      <c r="B433">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" t="s">
+        <v>58</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" t="s">
+        <v>69</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" t="s">
+        <v>49</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" t="s">
+        <v>49</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" t="s">
+        <v>55</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" t="s">
+        <v>118</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" t="s">
+        <v>32</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" t="s">
+        <v>102</v>
+      </c>
+      <c r="B441">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" t="s">
+        <v>39</v>
+      </c>
+      <c r="B442">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" t="s">
+        <v>124</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" t="s">
+        <v>74</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" t="s">
+        <v>74</v>
+      </c>
+      <c r="B445">
+        <v>3.714</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" t="s">
+        <v>77</v>
+      </c>
+      <c r="B446">
+        <v>7.5709999999999997</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" t="s">
+        <v>80</v>
+      </c>
+      <c r="B447">
+        <v>6.4290000000000003</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" t="s">
+        <v>124</v>
+      </c>
+      <c r="B448">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" t="s">
+        <v>62</v>
+      </c>
+      <c r="B449">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" t="s">
+        <v>65</v>
+      </c>
+      <c r="B450">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" t="s">
+        <v>150</v>
+      </c>
+      <c r="B451">
+        <v>4.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
